--- a/Data/Cyberware 2077 - 3488436112/Cyberware 2077 - 3488436112.xlsx
+++ b/Data/Cyberware 2077 - 3488436112/Cyberware 2077 - 3488436112.xlsx
@@ -1734,7 +1734,7 @@
     <t>An installed Gorilla Arm. Gorilla Arms, like most late generation cyberware, feature real-time 1:1 synaptic junctions that operate as fast as the user can think. Rather than mechanical actuators, their strength now comes from synthetic muscles made of electric-field activated shape-memory alloys that easily fit within the normal profile of your arm. Apply a layer of Realskinn on top, and no one needs to know you can rip open closed doors like they are made out of paper; though if you want, bright colors and trademark patterns can advertise what you're packing.</t>
   </si>
   <si>
-    <t>장착된 고릴라 암즈. 고릴라 암즈는 대부분의 최신형 사이버웨어와 마찬가지로, 사용자가 생각하는 속도만큼 빠르게 작동하는 실시간 1:1 시냅스 접합부를 특징으로 합니다. 기계식 액추에이터 대신, 전기장 활성화 형상 기억 합금으로 만들어진 합성 근육에서 힘이 나오며, 이는 팔의 일반적인 형태에 쉽게 맞춰집니다. 그 위에 리얼스킨 층을 적용하면, 아무도 당신이 닫힌 문을 종잇장처럼 찢어버릴 수 있다는 것을 알 필요가 없습니다. 하지만 원한다면, 밝은 색상과 상표 패턴으로 당신이 무엇을 장착했는지 광고할 수 있습니다.</t>
+    <t>장착된 고릴라 암즈. 고릴라 암즈는 대부분의 최신형 사이버웨어와 마찬가지로, 사용자가 생각하는 속도만큼 빠르게 작동하는 실시간 1:1 시냅스 접합부를 특징으로 합니다. 기계식 액추에이터 대신, 전기장 활성화 형상 기억 합금으로 만들어진 합성 근육에서 힘이 나오며, 이는 팔의 일반적인 형태에 쉽게 맞춰집니다. 또한 위에 실제 피부를 덧씌웠기 때문에, 아무도 당신이 닫힌 문을 종잇장처럼 찢어버릴 수 있다는 것을 모를 것 입니다. 하지만 원한다면, 밝은 색상과 상표 패턴으로 당신이 무엇을 장착했는지 광고할 수도 있습니다.</t>
   </si>
   <si>
     <t>HediffDef+GorillaArm_5T.comps.0.tools.0.label</t>
@@ -1764,7 +1764,7 @@
     <t>A Gorilla Arm. Gorilla Arms, like most late generation cyberware, feature real-time 1:1 synaptic junctions that operate as fast as the user can think. Rather than mechanical actuators, their strength now comes from synthetic muscles made of electric-field activated shape-memory alloys that easily fit within the normal profile of your arm. Apply a layer of Realskinn on top, and no one needs to know you can rip open closed doors like they are made out of paper; though if you want, bright colors and trademark patterns can advertise what you're packing.</t>
   </si>
   <si>
-    <t>고릴라 암즈. 고릴라 암즈는 대부분의 최신형 사이버웨어와 마찬가지로, 사용자가 생각하는 속도만큼 빠르게 작동하는 실시간 1:1 시냅스 접합부를 특징으로 합니다. 기계식 액추에이터 대신, 전기장 활성화 형상 기억 합금으로 만들어진 합성 근육에서 힘이 나오며, 이는 팔의 일반적인 형태에 쉽게 맞춰집니다. 그 위에 리얼스킨 층을 적용하면, 아무도 당신이 닫힌 문을 종잇장처럼 찢어버릴 수 있다는 것을 알 필요가 없습니다. 하지만 원한다면, 밝은 색상과 상표 패턴으로 당신이 무엇을 장착했는지 광고할 수 있습니다.</t>
+    <t>고릴라 암즈. 고릴라 암즈는 대부분의 최신형 사이버웨어와 마찬가지로, 사용자가 생각하는 속도만큼 빠르게 작동하는 실시간 1:1 시냅스 접합부를 특징으로 합니다. 기계식 액추에이터 대신, 전기장 활성화 형상 기억 합금으로 만들어진 합성 근육에서 힘이 나오며, 이는 팔의 일반적인 형태에 쉽게 맞춰집니다. 또한 위에 실제 피부를 덧씌웠기 때문에, 아무도 당신이 닫힌 문을 종잇장처럼 찢어버릴 수 있다는 것을 모를 것 입니다. 하지만 원한다면, 밝은 색상과 상표 패턴으로 당신이 무엇을 장착했는지 광고할 수도 있습니다.</t>
   </si>
   <si>
     <t>RecipeDef+InstallGorillaArm_5T.label</t>
@@ -1863,7 +1863,7 @@
     <t>An installed Mantis Blade. Arm blades designed with lethality and concealment in mind. As effective as they are flashy.</t>
   </si>
   <si>
-    <t>설치된 맨티스 블레이드. 치명성과 은닉성에 중점을 둔 팔 사이버웨어. 화려하면서도 강력하다.</t>
+    <t>설치된 맨티스 블레이드. 맨티스 블레이드. 치명성과 은닉성에 중점을 둔 팔 사이버웨어. 화려하면서도 강력합니다.</t>
   </si>
   <si>
     <t>HediffDef+MantisBlade_5T.comps.0.tools.0.label</t>
@@ -1902,7 +1902,7 @@
     <t>A Mantis Blade. Arm blades designed with lethality and concealment in mind. As effective as they are flashy.</t>
   </si>
   <si>
-    <t>맨티스 블레이드. 치명성과 은닉성에 중점을 둔 팔 사이버웨어. 화려하면서도 강력하다.</t>
+    <t>맨티스 블레이드. 치명성과 은닉성에 중점을 둔 팔 사이버웨어. 화려하면서도 강력합니다.</t>
   </si>
   <si>
     <t>RecipeDef+InstallMantisBlade_5T.label</t>
@@ -1998,7 +1998,7 @@
     <t>An installed Higurashi 20-13 Mantis Blade. An older iteration of the Mantis Blade arm cyberware, they are considered to be of very high quality but suffer from a dangerous flaw - poor interface with neural processors and the prefrontal cortex, which results in users frequently developing cyberpsychosis.</t>
   </si>
   <si>
-    <t>설치된 히구라시 20-13 맨티스 블레이드. 맨티스 블레이드 팔 사이버웨어의 구형 모델로, 매우 높은 품질로 평가받지만 위험한 결함이 있다. 신경 처리 장치 및 전두엽 피질과의 인터페이스 불량으로 사용자에게 빈번한 사이버사이코시스를 유발한다.</t>
+    <t>설치된 히구라시 20-13 맨티스 블레이드. 맨티스 블레이드 팔 사이버웨어의 구형 모델로, 매우 높은 품질로 평가받지만 위험한 결함이 있습니다. 신경 처리 장치 및 전두엽 피질과의 인터페이스 불량으로 사용자에게 빈번한 사이버 사이코시스를 유발합니다.</t>
   </si>
   <si>
     <t>HediffDef+MantisBlade_Iconic.comps.0.tools.0.label</t>
@@ -2031,7 +2031,7 @@
     <t>A Higurashi 20-13 Mantis Blade. An older iteration of the Mantis Blade arm cyberware, they are considered to be of very high quality but suffer from a dangerous flaw - poor interface with neural processors and the prefrontal cortex, which results in users frequently developing cyberpsychosis.</t>
   </si>
   <si>
-    <t>히구라시 20-13 맨티스 블레이드. 맨티스 블레이드 의수 사이버웨어의 구형 모델로, 매우 높은 품질로 평가받지만 치명적인 결함이 있습니다. 신경 처리 장치 및 전두엽과의 불안정한 인터페이스로 인해 사용자에게 사이버 정신병이 자주 발병합니다.</t>
+    <t>히구라시 20-13 맨티스 블레이드. 맨티스 블레이드 팔 사이버웨어의 구형 모델로, 매우 높은 품질로 평가받지만 위험한 결함이 있습니다. 신경 처리 장치 및 전두엽 피질과의 인터페이스 불량으로 사용자에게 빈번한 사이버 사이코시스를 유발합니다.</t>
   </si>
   <si>
     <t>RecipeDef+InstallMantisBlade_Iconic.label</t>
@@ -2949,7 +2949,7 @@
     <t>An installed Kiroshi "The Oracle" eye. Iconic cyberoptic implant with advanced wide-angle multi-spectral scanning, targeting and threat detection modes and dual-mode datalink processors for ranged and melee combat. This allows the user to accurately approximate target positions in complete darkness or even behind cover, and also respond swiftly to close-range threats.</t>
   </si>
   <si>
-    <t>장착된 키로시 "천리안" 눈. 고급 광각 다중 스펙트럼 스캔, 조준 및 위협 감지 모드, 원거리 및 근접 전투용 듀얼 모드 데이터링크 프로세서를 갖춘 아이코닉 사이버 옵틱 임플란트. 사용자는 완전한 어둠 속이나 엄폐물 뒤에 있는 목표물 위치를 정확히 추정하고, 근거리 위협에도 신속하게 대응할 수 있습니다.</t>
+    <t>장착된 키로시 "천리안" 눈. 고급 광각 다중 스펙트럼 스캔, 조준 및 위협 감지 모드, 원거리 및 근접 전투용 듀얼 모드 데이터링크 프로세서를 갖춘 신화 사이버 옵틱 임플란트. 사용자는 완전한 어둠 속이나 엄폐물 뒤에 있는 목표물 위치를 정확히 추정하고, 근거리 위협에도 신속하게 대응할 수 있습니다.</t>
   </si>
   <si>
     <t>ThingDef+KiroshiTheOracleEye_Iconic.label</t>
@@ -2961,7 +2961,7 @@
     <t>A Kiroshi "The Oracle" eye. Iconic cyberoptic implant with advanced wide-angle multi-spectral scanning, targeting and threat detection modes and dual-mode datalink processors for ranged and melee combat. This allows the user to accurately approximate target positions in complete darkness or even behind cover, and also respond swiftly to close-range threats.</t>
   </si>
   <si>
-    <t>키로시 "천리안" 눈. 고급 광각 다중 스펙트럼 스캔, 조준 및 위협 감지 모드, 원거리 및 근접 전투용 듀얼 모드 데이터링크 프로세서를 갖춘 아이코닉 사이버 옵틱 임플란트. 사용자는 완전한 어둠 속이나 엄폐물 뒤에 있는 목표물 위치를 정확히 추정하고, 근거리 위협에도 신속하게 대응할 수 있습니다.</t>
+    <t>키로시 "천리안" 눈. 고급 광각 다중 스펙트럼 스캔, 조준 및 위협 감지 모드, 원거리 및 근접 전투용 듀얼 모드 데이터링크 프로세서를 갖춘 신화 사이버 옵틱 임플란트. 사용자는 완전한 어둠 속이나 엄폐물 뒤에 있는 목표물 위치를 정확히 추정하고, 근거리 위협에도 신속하게 대응할 수 있습니다.</t>
   </si>
   <si>
     <t>RecipeDef+InstallKiroshiTheOracleEye_Iconic.label</t>
@@ -3776,7 +3776,7 @@
     <t>An installed Immovable Force implant. Improved Iconic variant of the shock absorbers. These decrease recoil massively, to the point of allowing the user to fire significantly faster than normal. They also make the user *much* more prone to psychosis.</t>
   </si>
   <si>
-    <t>설치된 움직이지 않는 힘 임플란트. 충격 흡수 장치의 개선된 아이코닉 버전. 반동을 대폭 감소시켜 사용자가 평소보다 훨씬 빠르게 발사할 수 있게 합니다. 또한 사용자를 정신 이상에 *훨씬* 더 취약하게 만듭니다.</t>
+    <t>설치된 움직이지 않는 힘. 충격 흡수기의 개선된 신화 버전. 반동을 대폭 감소시켜 사용자가 평소보다 훨씬 빠르게 발사할 수 있게 합니다. 또한 사용자를 정신 이상에 *훨씬* 더 취약하게 만듭니다.</t>
   </si>
   <si>
     <t>ThingDef+ImmovableForce_Iconic.label</t>
@@ -3788,7 +3788,7 @@
     <t>An Immovable Force. Improved Iconic variant of the shock absorbers. These decrease recoil massively, to the point of allowing the user to fire significantly faster than normal. They also make the user *much* more prone to psychosis.</t>
   </si>
   <si>
-    <t>움직이지 않는 힘. 충격 흡수 장치의 개선된 아이코닉 버전. 반동을 대폭 감소시켜 사용자가 평소보다 훨씬 빠르게 발사할 수 있게 합니다. 또한 사용자를 정신 이상에 *훨씬* 더 취약하게 만듭니다.</t>
+    <t>움직이지 않는 힘. 충격 흡수기의 개선된 신화 버전. 반동을 대폭 감소시켜 사용자가 평소보다 훨씬 빠르게 발사할 수 있게 합니다. 또한 사용자를 정신 이상에 *훨씬* 더 취약하게 만듭니다.</t>
   </si>
   <si>
     <t>RecipeDef+InstallImmovableForce_Iconic.label</t>
@@ -5694,8 +5694,8 @@
 It also makes the user more prone to psychosis.</t>
   </si>
   <si>
-    <t>설치된 바이오다인 버서크. 바이오다인 버서크 모델은 빠르고 쉬운 결과를 원하지만 기적은 기대하지 않는 이들을 위한 저렴하고 다재다능한 임플란트다. 광고 그대로의 기능을 수행한다. 활성화되면 사용자는 원시적인 분노 상태에 빠지고 물리 피해에 대한 저항력이 크게 증가하며, 자신의 공격 속도와 공격력을 높이는 대신 원거리 무기 사용이 불가능해진다. 
-사용자가 정신 이상 증세에 취약해지기도 한다.</t>
+    <t>설치된 바이오다인 버서크. 바이오다인 버서크 모델은 빠르고 쉬운 결과를 원하지만 기적은 기대하지 않는 이들을 위한 저렴하고 다재다능한 임플란트입니다. 광고 그대로의 기능을 수행합니다. 활성화되면 사용자는 원시적인 분노 상태에 빠지고 물리 피해에 대한 저항력이 크게 증가하며, 자신의 공격 속도와 공격력을 높이는 대신 원거리 무기 사용이 불가능해집니다. 
+사용자가 정신 이상 증세에 취약해지기도 합니다.</t>
   </si>
   <si>
     <t>ThingDef+BioDyneBerserk_5T.label</t>
@@ -5708,8 +5708,8 @@
 It also makes the user more prone to psychosis.</t>
   </si>
   <si>
-    <t>바이오다인 버서크. 바이오다인 버서크 모델은 빠르고 쉬운 결과를 원하지만 기적은 기대하지 않는 이들을 위한 저렴하고 다재다능한 임플란트다. 광고 그대로의 기능을 수행한다. 활성화되면 사용자는 원시적인 분노 상태에 빠지고 물리 피해에 대한 저항력이 크게 증가하며, 자신의 공격 속도와 공격력을 높이는 대신 원거리 무기 사용이 불가능해진다. 
-사용자가 정신 이상 증세에 취약해지기도 한다.</t>
+    <t>바이오다인 버서크. 바이오다인 버서크 모델은 빠르고 쉬운 결과를 원하지만 기적은 기대하지 않는 이들을 위한 저렴하고 다재다능한 임플란트입니다. 광고 그대로의 기능을 수행합니다. 활성화되면 사용자는 원시적인 분노 상태에 빠지고 물리 피해에 대한 저항력이 크게 증가하며, 자신의 공격 속도와 공격력을 높이는 대신 원거리 무기 사용이 불가능해집니다. 
+사용자가 정신 이상 증세에 취약해지기도 합니다.</t>
   </si>
   <si>
     <t>RecipeDef+InstallBioDyneBerserk_5T.label</t>
@@ -6449,7 +6449,7 @@
   </si>
   <si>
     <t>장착된 테트라트로닉 리플러 사이버덱. 전투 넷러너를 위해 설계된 리플러는 순수한 힘과 군중 제어에 중점을 둔다. 혼란스러운 전장 조작에 적합하다.
-설치된 퀵핵: 과열, 합선, 광학 리부팅, 무기 오류, 사이버 정신병, 자살, 수류탄 폭파 (2회)
+설치된 퀵핵: 과열, 합선, 광학 리부팅, 무기 오류, 사이버사이코, 자살, 수류탄 폭파 (2회)
 사용자는 EMP에 의한 사이버웨어 오작동에 취약해진다.
 또한 정신 이상에 더 취약해진다.</t>
   </si>
@@ -6467,7 +6467,7 @@
   </si>
   <si>
     <t>테트라트로닉 리플러 사이버덱. 전투 넷러너를 위해 설계된 리플러는 순수한 힘과 군중 제어에 중점을 둔다. 혼란스러운 전장 조작에 적합하다.
-설치된 퀵핵: 과열, 합선, 광학 리부팅, 무기 오류, 사이버 정신병 (2회), 수류탄 폭파 (2회)
+설치된 퀵핵: 과열, 합선, 광학 리부팅, 무기 오류, 사이버사이코 (2회), 수류탄 폭파 (2회)
 사용자는 EMP에 의한 사이버웨어 오작동에 취약해진다.
 또한 정신 이상에 더 취약해진다.</t>
   </si>
@@ -16190,7 +16190,7 @@
       <c r="E175" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F175" s="3" t="s">
         <v>573</v>
       </c>
       <c r="G175" s="1"/>
@@ -16342,7 +16342,7 @@
       <c r="E179" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F179" s="3" t="s">
         <v>583</v>
       </c>
       <c r="G179" s="1"/>
@@ -16646,7 +16646,7 @@
       <c r="E187" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F187" s="3" t="s">
         <v>616</v>
       </c>
       <c r="G187" s="1"/>
@@ -16836,7 +16836,7 @@
       <c r="E192" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="F192" s="3" t="s">
         <v>629</v>
       </c>
       <c r="G192" s="1"/>
@@ -17140,7 +17140,7 @@
       <c r="E200" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F200" s="3" t="s">
         <v>661</v>
       </c>
       <c r="G200" s="1"/>
@@ -17330,7 +17330,7 @@
       <c r="E205" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F205" s="2" t="s">
+      <c r="F205" s="3" t="s">
         <v>672</v>
       </c>
       <c r="G205" s="1"/>
@@ -30326,7 +30326,7 @@
       <c r="E547" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="F547" s="2" t="s">
+      <c r="F547" s="3" t="s">
         <v>1888</v>
       </c>
       <c r="G547" s="1"/>
@@ -30402,7 +30402,7 @@
       <c r="E549" s="1" t="s">
         <v>1891</v>
       </c>
-      <c r="F549" s="2" t="s">
+      <c r="F549" s="3" t="s">
         <v>1892</v>
       </c>
       <c r="G549" s="1"/>
